--- a/TestData/caculator.xlsx
+++ b/TestData/caculator.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7860" windowWidth="19935"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="6390" windowWidth="14580"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="测试用例" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
   <si>
     <t>用例名称</t>
   </si>
@@ -56,7 +56,7 @@
     <t>y</t>
   </si>
   <si>
-    <t>2019-11-13 16:52:47</t>
+    <t>2019-11-27 18:14:35</t>
   </si>
   <si>
     <t>Pass</t>
@@ -68,7 +68,7 @@
     <t>使用不同的数据进行加法测试</t>
   </si>
   <si>
-    <t>2019-11-13 16:52:58</t>
+    <t>2019-11-27 18:14:42</t>
   </si>
   <si>
     <t>除法测试</t>
@@ -77,7 +77,10 @@
     <t>使用不同的数据进行除法测试</t>
   </si>
   <si>
-    <t>2019-11-13 16:53:05</t>
+    <t>2019-11-27 18:14:55</t>
+  </si>
+  <si>
+    <t>Faild</t>
   </si>
   <si>
     <t>退出服务</t>
@@ -89,7 +92,7 @@
     <t>退出</t>
   </si>
   <si>
-    <t>2019-11-13 16:53:10</t>
+    <t>2019-11-27 18:15:00</t>
   </si>
   <si>
     <t>测试步骤描述</t>
@@ -119,7 +122,7 @@
     <t>open_app</t>
   </si>
   <si>
-    <t>2019-11-13 16:54:49</t>
+    <t>2019-11-27 18:18:51</t>
   </si>
   <si>
     <t>点击数字1</t>
@@ -134,7 +137,7 @@
     <t>com.example.calculator:id/bt_1</t>
   </si>
   <si>
-    <t>2019-11-13 16:52:53</t>
+    <t>2019-11-27 18:14:37</t>
   </si>
   <si>
     <t>点击加号</t>
@@ -143,7 +146,7 @@
     <t>com.example.calculator:id/bt_plus</t>
   </si>
   <si>
-    <t>2019-11-13 16:52:54</t>
+    <t>2019-11-27 18:14:38</t>
   </si>
   <si>
     <t>点击数字8</t>
@@ -152,7 +155,7 @@
     <t>com.example.calculator:id/bt_8</t>
   </si>
   <si>
-    <t>2019-11-13 16:52:56</t>
+    <t>2019-11-27 18:14:40</t>
   </si>
   <si>
     <t>点击等号</t>
@@ -161,7 +164,7 @@
     <t>com.example.calculator:id/bt_equ</t>
   </si>
   <si>
-    <t>2019-11-13 16:52:57</t>
+    <t>2019-11-27 18:14:41</t>
   </si>
   <si>
     <t>断言计算结果</t>
@@ -179,10 +182,10 @@
     <t>com.example.calculator:id/bt_c</t>
   </si>
   <si>
-    <t>2019-11-13 16:52:59</t>
-  </si>
-  <si>
-    <t>2019-11-13 16:53:00</t>
+    <t>2019-11-27 18:14:43</t>
+  </si>
+  <si>
+    <t>2019-11-27 18:14:45</t>
   </si>
   <si>
     <t>点击除号</t>
@@ -191,7 +194,7 @@
     <t>com.example.calculator:id/bt_div</t>
   </si>
   <si>
-    <t>2019-11-13 16:53:02</t>
+    <t>2019-11-27 18:14:46</t>
   </si>
   <si>
     <t>点击数字2</t>
@@ -200,7 +203,28 @@
     <t>com.example.calculator:id/bt_2</t>
   </si>
   <si>
-    <t>2019-11-13 16:53:03</t>
+    <t>2019-11-27 18:14:48</t>
+  </si>
+  <si>
+    <t>2019-11-27 18:14:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traceback (most recent call last):
+  File "F:\pythonTest\calculatorTest\Action\BaseAction.py", line 79, in assert_element_text
+    assert assertString == getElement(driver, locationType, locatorExpression).text, "%s is not object's text!" % assertString
+AssertionError: 9 is not object's text!
+During handling of the above exception, another exception occurred:
+Traceback (most recent call last):
+  File "F:\pythonTest\calculatorTest\TestScripts\AppRankAndSearchApp.py", line 70, in appRankAndSearchApp
+    eval(step)
+  File "&lt;string&gt;", line 1, in &lt;module&gt;
+  File "F:\pythonTest\calculatorTest\Action\BaseAction.py", line 81, in assert_element_text
+    raise AssertionError(e)
+AssertionError: 9 is not object's text!
+</t>
+  </si>
+  <si>
+    <t>F:\pythonTest\calculatorTest\ExceptionPictures\2019-11-27\18-14-49.png</t>
   </si>
   <si>
     <t>关闭APP</t>
@@ -209,37 +233,46 @@
     <t>quit_server</t>
   </si>
   <si>
-    <t>2019-11-13 16:53:09</t>
-  </si>
-  <si>
-    <t>2019-11-13 16:54:51</t>
-  </si>
-  <si>
-    <t>2019-11-13 16:54:52</t>
-  </si>
-  <si>
-    <t>2019-11-13 16:54:53</t>
-  </si>
-  <si>
-    <t>2019-11-13 16:54:55</t>
-  </si>
-  <si>
-    <t>2019-11-13 16:54:57</t>
-  </si>
-  <si>
-    <t>2019-11-13 16:54:58</t>
-  </si>
-  <si>
-    <t>2019-11-13 16:55:00</t>
-  </si>
-  <si>
-    <t>2019-11-13 16:55:01</t>
-  </si>
-  <si>
-    <t>2019-11-13 16:55:03</t>
-  </si>
-  <si>
-    <t>2019-11-13 16:55:08</t>
+    <t>2019-11-27 18:18:53</t>
+  </si>
+  <si>
+    <t>2019-11-27 18:18:54</t>
+  </si>
+  <si>
+    <t>2019-11-27 18:18:56</t>
+  </si>
+  <si>
+    <t>2019-11-27 18:18:57</t>
+  </si>
+  <si>
+    <t>2019-11-27 18:18:58</t>
+  </si>
+  <si>
+    <t>2019-11-27 18:18:59</t>
+  </si>
+  <si>
+    <t>2019-11-27 18:19:01</t>
+  </si>
+  <si>
+    <t>2019-11-27 18:19:02</t>
+  </si>
+  <si>
+    <t>2019-11-27 18:19:03</t>
+  </si>
+  <si>
+    <t>2019-11-27 18:19:05</t>
+  </si>
+  <si>
+    <t>2019-11-27 18:19:11</t>
+  </si>
+  <si>
+    <t>F:\pythonTest\calculatorTest\ExceptionPictures\2019-11-27\18-19-05.png</t>
+  </si>
+  <si>
+    <t>2019-11-27 18:19:15</t>
+  </si>
+  <si>
+    <t>2019-11-27 18:19:16</t>
   </si>
 </sst>
 </file>
@@ -252,7 +285,7 @@
     <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
     <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -280,6 +313,49 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -288,7 +364,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -302,15 +378,62 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -324,53 +447,9 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -391,53 +470,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <color rgb="0000FF00"/>
+    </font>
+    <font>
+      <color rgb="00FF0000"/>
     </font>
   </fonts>
   <fills count="34">
@@ -455,19 +491,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,157 +665,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,45 +690,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,6 +729,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -749,140 +785,140 @@
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="164">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="13" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="165">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="166">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="167">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="13" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="166">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="167">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="24" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="21" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="8" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="7" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="7" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="33" fontId="24" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="14" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="30" fontId="11" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="29" fontId="14" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="27" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="27" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="33" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="7" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="25" fontId="7" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -906,10 +942,6 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="46"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -925,6 +957,10 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="41"/>
@@ -1256,24 +1292,24 @@
   <cols>
     <col customWidth="1" max="1" min="1" style="2" width="20.2083333333333"/>
     <col customWidth="1" max="2" min="2" style="2" width="41.1416666666667"/>
-    <col customWidth="1" max="3" min="3" style="16" width="21"/>
-    <col customWidth="1" max="4" min="4" style="16" width="16.7083333333333"/>
-    <col customWidth="1" max="5" min="5" style="16" width="24.375"/>
-    <col customWidth="1" max="6" min="6" style="16" width="13.2083333333333"/>
+    <col customWidth="1" max="3" min="3" style="14" width="21"/>
+    <col customWidth="1" max="4" min="4" style="14" width="16.7083333333333"/>
+    <col customWidth="1" max="5" min="5" style="14" width="24.375"/>
+    <col customWidth="1" max="6" min="6" style="14" width="13.2083333333333"/>
     <col customWidth="1" max="16384" min="7" style="1" width="11"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="15" spans="1:8">
-      <c r="A1" s="17" t="s">
+    <row customFormat="1" r="1" s="13" spans="1:8">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -1306,10 +1342,10 @@
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="18" t="s">
+      <c r="G2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1329,10 +1365,10 @@
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="18" t="s">
+      <c r="G3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="16" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1343,10 +1379,10 @@
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="1" t="n"/>
@@ -1354,32 +1390,32 @@
         <v>11</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="16" t="s">
+      <c r="D5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="18" t="s">
+      <c r="G5" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="16" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1416,49 +1452,49 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="14" t="n"/>
-      <c r="F2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="D2" s="12" t="n"/>
+      <c r="F2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="18" t="s"/>
-      <c r="I2" s="18" t="s"/>
+      <c r="H2" s="16" t="s"/>
+      <c r="I2" s="16" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
@@ -1492,145 +1528,145 @@
   <sheetData>
     <row customFormat="1" r="1" s="1" spans="1:9">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="18" t="s"/>
-      <c r="I2" s="18" t="s"/>
+      <c r="H2" s="16" t="s"/>
+      <c r="I2" s="16" t="s"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="18" t="s"/>
-      <c r="I3" s="18" t="s"/>
+      <c r="H3" s="16" t="s"/>
+      <c r="I3" s="16" t="s"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="18" t="s"/>
-      <c r="I4" s="18" t="s"/>
+      <c r="H4" s="16" t="s"/>
+      <c r="I4" s="16" t="s"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="18" t="s"/>
-      <c r="I5" s="18" t="s"/>
+      <c r="H5" s="16" t="s"/>
+      <c r="I5" s="16" t="s"/>
     </row>
     <row customHeight="1" ht="20" r="6" s="10" spans="1:9">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="18" t="s">
+      <c r="F6" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="19" t="s"/>
-      <c r="I6" s="18" t="s"/>
+      <c r="H6" s="17" t="s"/>
+      <c r="I6" s="16" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1647,7 +1683,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0" outlineLevelRow="6"/>
@@ -1665,167 +1701,171 @@
   <sheetData>
     <row customFormat="1" r="1" s="1" spans="1:9">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="18" t="s"/>
-      <c r="I2" s="18" t="s"/>
+      <c r="H2" s="16" t="s"/>
+      <c r="I2" s="16" t="s"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="18" t="s"/>
-      <c r="I3" s="18" t="s"/>
+      <c r="H3" s="16" t="s"/>
+      <c r="I3" s="16" t="s"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="18" t="s"/>
-      <c r="I4" s="18" t="s"/>
+      <c r="H4" s="16" t="s"/>
+      <c r="I4" s="16" t="s"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="18" t="s"/>
-      <c r="I5" s="18" t="s"/>
+      <c r="H5" s="16" t="s"/>
+      <c r="I5" s="16" t="s"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="18" t="s"/>
-      <c r="I6" s="18" t="s"/>
+      <c r="H6" s="16" t="s"/>
+      <c r="I6" s="16" t="s"/>
     </row>
     <row customHeight="1" ht="20" r="7" s="10" spans="1:9">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="19" t="s"/>
-      <c r="I7" s="18" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.509027777777778" header="0.509027777777778" left="0.75" right="0.75" top="1"/>
@@ -1860,49 +1900,49 @@
   <sheetData>
     <row customHeight="1" ht="17.6" r="1" s="10" spans="1:9">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E2" s="6" t="n"/>
       <c r="F2" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="21" t="s"/>
-      <c r="I2" s="18" t="s"/>
+      <c r="I2" s="16" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
